--- a/Civilworks cost/DPP_Revised/dframes.xlsx
+++ b/Civilworks cost/DPP_Revised/dframes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Input_sheet" sheetId="1" r:id="rId1"/>
@@ -1688,10 +1688,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14579,15 +14588,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="41.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>318</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -14655,13 +14671,13 @@
       <c r="B2">
         <v>3111302</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
@@ -14723,13 +14739,13 @@
       <c r="B3">
         <v>3111327</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" t="s">
@@ -14791,13 +14807,13 @@
       <c r="B4">
         <v>3111338</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>364</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>140</v>
       </c>
       <c r="F4" t="s">
@@ -14859,13 +14875,13 @@
       <c r="B5">
         <v>3241101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>365</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>120</v>
       </c>
       <c r="F5" t="s">
@@ -14927,13 +14943,13 @@
       <c r="B6">
         <v>3211129</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>245</v>
       </c>
       <c r="F6" t="s">
@@ -14995,13 +15011,13 @@
       <c r="B7">
         <v>3821103</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>367</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2596.27</v>
       </c>
       <c r="F7" t="s">
@@ -15063,13 +15079,13 @@
       <c r="B8">
         <v>3211119</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" t="s">
@@ -15131,13 +15147,13 @@
       <c r="B9">
         <v>3211120</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>369</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" t="s">
@@ -15199,13 +15215,13 @@
       <c r="B10">
         <v>3211117</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" t="s">
@@ -15267,13 +15283,13 @@
       <c r="B11">
         <v>3221104</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>371</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>20</v>
       </c>
       <c r="F11" t="s">
@@ -15335,13 +15351,13 @@
       <c r="B12">
         <v>3211115</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>372</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" t="s">
@@ -15403,13 +15419,13 @@
       <c r="B13">
         <v>3211113</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>373</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>20</v>
       </c>
       <c r="F13" t="s">
@@ -15471,13 +15487,13 @@
       <c r="B14">
         <v>3243102</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>40</v>
       </c>
       <c r="F14" t="s">
@@ -15539,13 +15555,13 @@
       <c r="B15">
         <v>3243101</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D15">
         <v>24</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>170</v>
       </c>
       <c r="F15" t="s">
@@ -15607,13 +15623,13 @@
       <c r="B16">
         <v>3221108</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>376</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>3</v>
       </c>
       <c r="F16" t="s">
@@ -15675,13 +15691,13 @@
       <c r="B17">
         <v>3255102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>377</v>
       </c>
       <c r="D17">
         <v>26</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>50</v>
       </c>
       <c r="F17" t="s">
@@ -15743,13 +15759,13 @@
       <c r="B18">
         <v>3255104</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>378</v>
       </c>
       <c r="D18">
         <v>27</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>120</v>
       </c>
       <c r="F18" t="s">
@@ -15811,13 +15827,13 @@
       <c r="B19">
         <v>3211127</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>379</v>
       </c>
       <c r="D19">
         <v>28</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" t="s">
@@ -15879,13 +15895,13 @@
       <c r="B20">
         <v>3231201</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D20">
         <v>30</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>238.54</v>
       </c>
       <c r="F20" t="s">
@@ -15947,13 +15963,13 @@
       <c r="B21">
         <v>3231201</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>381</v>
       </c>
       <c r="D21">
         <v>31</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>536.70000000000005</v>
       </c>
       <c r="F21" t="s">
@@ -16015,13 +16031,13 @@
       <c r="B22">
         <v>3231201</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>382</v>
       </c>
       <c r="D22">
         <v>32</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>3130.1</v>
       </c>
       <c r="F22" t="s">
@@ -16083,13 +16099,13 @@
       <c r="B23">
         <v>3231201</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>383</v>
       </c>
       <c r="D23">
         <v>33</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>1331.2</v>
       </c>
       <c r="F23" t="s">
@@ -16151,13 +16167,13 @@
       <c r="B24">
         <v>3211109</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>384</v>
       </c>
       <c r="D24">
         <v>34</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>22</v>
       </c>
       <c r="F24" t="s">
@@ -16219,13 +16235,13 @@
       <c r="B25">
         <v>3256103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>385</v>
       </c>
       <c r="D25">
         <v>35</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>15</v>
       </c>
       <c r="F25" t="s">
@@ -16287,13 +16303,13 @@
       <c r="B26">
         <v>3257101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D26">
         <v>36</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" t="s">
@@ -16355,13 +16371,13 @@
       <c r="B27">
         <v>3111332</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D27">
         <v>37</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>30</v>
       </c>
       <c r="F27" t="s">
@@ -16423,13 +16439,13 @@
       <c r="B28">
         <v>3111332</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D28">
         <v>38</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" t="s">
@@ -16491,13 +16507,13 @@
       <c r="B29">
         <v>3111332</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D29">
         <v>39</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" t="s">
@@ -16559,13 +16575,13 @@
       <c r="B30">
         <v>3257104</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D30">
         <v>40</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>162</v>
       </c>
       <c r="F30" t="s">
@@ -16627,13 +16643,13 @@
       <c r="B31">
         <v>3255101</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D31">
         <v>41</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>60</v>
       </c>
       <c r="F31" t="s">
@@ -16695,13 +16711,13 @@
       <c r="B32">
         <v>3256101</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>392</v>
       </c>
       <c r="D32">
         <v>42</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1700</v>
       </c>
       <c r="F32" t="s">
@@ -16763,13 +16779,13 @@
       <c r="B33">
         <v>3258101</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>393</v>
       </c>
       <c r="D33">
         <v>44</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>125</v>
       </c>
       <c r="F33" t="s">
@@ -16831,13 +16847,13 @@
       <c r="B34">
         <v>3258102</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D34">
         <v>45</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>10</v>
       </c>
       <c r="F34" t="s">
@@ -16899,13 +16915,13 @@
       <c r="B35">
         <v>3258103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D35">
         <v>46</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>15</v>
       </c>
       <c r="F35" t="s">
@@ -16967,13 +16983,13 @@
       <c r="B36">
         <v>3258105</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>396</v>
       </c>
       <c r="D36">
         <v>47</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" t="s">
@@ -17035,13 +17051,13 @@
       <c r="B37">
         <v>3258107</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>25</v>
       </c>
       <c r="F37" t="s">
@@ -17103,13 +17119,13 @@
       <c r="B38">
         <v>3258106</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D38">
         <v>49</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s">
@@ -17171,13 +17187,13 @@
       <c r="B39">
         <v>3258105</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>399</v>
       </c>
       <c r="D39">
         <v>50</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>20</v>
       </c>
       <c r="F39" t="s">
@@ -17239,13 +17255,13 @@
       <c r="B40">
         <v>3258114</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D40">
         <v>52</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>405.55</v>
       </c>
       <c r="F40">
@@ -17307,13 +17323,13 @@
       <c r="B41">
         <v>3258128</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>401</v>
       </c>
       <c r="D41">
         <v>53</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" t="s">
@@ -17375,13 +17391,13 @@
       <c r="B42">
         <v>3258107</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>402</v>
       </c>
       <c r="D42">
         <v>54</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s">
@@ -17443,13 +17459,13 @@
       <c r="B43">
         <v>4112101</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>403</v>
       </c>
       <c r="D43">
         <v>59</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>70.25</v>
       </c>
       <c r="F43">
@@ -17511,13 +17527,13 @@
       <c r="B44">
         <v>4112101</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>404</v>
       </c>
       <c r="D44">
         <v>60</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>1.52</v>
       </c>
       <c r="F44">
@@ -17579,13 +17595,13 @@
       <c r="B45">
         <v>4112102</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D45">
         <v>62</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>18</v>
       </c>
       <c r="F45">
@@ -17647,13 +17663,13 @@
       <c r="B46">
         <v>4112316</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D46">
         <v>64</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>1.28</v>
       </c>
       <c r="F46">
@@ -17715,13 +17731,13 @@
       <c r="B47">
         <v>4112316</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>407</v>
       </c>
       <c r="D47">
         <v>65</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>0.5</v>
       </c>
       <c r="F47">
@@ -17783,13 +17799,13 @@
       <c r="B48">
         <v>4112304</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>408</v>
       </c>
       <c r="D48">
         <v>67</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>20.5</v>
       </c>
       <c r="F48">
@@ -17851,13 +17867,13 @@
       <c r="B49">
         <v>4112304</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>409</v>
       </c>
       <c r="D49">
         <v>68</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49">
@@ -17919,13 +17935,13 @@
       <c r="B50">
         <v>4112304</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>410</v>
       </c>
       <c r="D50">
         <v>69</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>0</v>
       </c>
       <c r="F50" t="s">
@@ -17987,13 +18003,13 @@
       <c r="B51">
         <v>4112202</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>411</v>
       </c>
       <c r="D51">
         <v>71</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>0.66</v>
       </c>
       <c r="F51">
@@ -18055,13 +18071,13 @@
       <c r="B52">
         <v>4112202</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>412</v>
       </c>
       <c r="D52">
         <v>72</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>1.25</v>
       </c>
       <c r="F52">
@@ -18123,13 +18139,13 @@
       <c r="B53">
         <v>4112202</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>413</v>
       </c>
       <c r="D53">
         <v>73</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>0.75</v>
       </c>
       <c r="F53">
@@ -18191,13 +18207,13 @@
       <c r="B54">
         <v>4112202</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D54">
         <v>74</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>0.31</v>
       </c>
       <c r="F54">
@@ -18259,13 +18275,13 @@
       <c r="B55">
         <v>4112314</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D55">
         <v>75</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>50</v>
       </c>
       <c r="F55" t="s">
@@ -18327,13 +18343,13 @@
       <c r="B56">
         <v>4112303</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>415</v>
       </c>
       <c r="D56">
         <v>76</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56">
@@ -18395,13 +18411,13 @@
       <c r="B57">
         <v>4141101</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D57">
         <v>78</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>41.97</v>
       </c>
       <c r="F57">
@@ -18463,13 +18479,13 @@
       <c r="B58">
         <v>4111306</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D58">
         <v>81</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>9.2899999999999991</v>
       </c>
       <c r="F58">
@@ -18531,13 +18547,13 @@
       <c r="B59">
         <v>4111307</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D59">
         <v>83</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>238.87</v>
       </c>
       <c r="F59">
@@ -18599,13 +18615,13 @@
       <c r="B60">
         <v>4111307</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D60">
         <v>84</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>164.88</v>
       </c>
       <c r="F60">
@@ -18667,13 +18683,13 @@
       <c r="B61">
         <v>4111307</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D61">
         <v>85</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>30.53</v>
       </c>
       <c r="F61">
@@ -18735,13 +18751,13 @@
       <c r="B62">
         <v>4111201</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>329</v>
       </c>
       <c r="D62">
         <v>87</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>31.19</v>
       </c>
       <c r="F62">
@@ -18803,13 +18819,13 @@
       <c r="B63">
         <v>4111201</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D63">
         <v>88</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>30.61</v>
       </c>
       <c r="F63">
@@ -18871,13 +18887,13 @@
       <c r="B64">
         <v>4111201</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D64">
         <v>89</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>26.54</v>
       </c>
       <c r="F64">
@@ -18939,13 +18955,13 @@
       <c r="B65">
         <v>4111201</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D65">
         <v>90</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>0</v>
       </c>
       <c r="F65">
@@ -19007,13 +19023,13 @@
       <c r="B66">
         <v>4111201</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D66">
         <v>91</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>22.02</v>
       </c>
       <c r="F66">
@@ -19075,13 +19091,13 @@
       <c r="B67">
         <v>4111201</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D67">
         <v>92</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>11.25</v>
       </c>
       <c r="F67">
@@ -19143,13 +19159,13 @@
       <c r="B68">
         <v>4111201</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>335</v>
       </c>
       <c r="D68">
         <v>93</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>33.64</v>
       </c>
       <c r="F68">
@@ -19211,13 +19227,13 @@
       <c r="B69">
         <v>4111201</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D69">
         <v>94</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>0</v>
       </c>
       <c r="F69">
@@ -19279,13 +19295,13 @@
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D70">
         <v>97</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>0</v>
       </c>
       <c r="F70" t="s">
@@ -19347,13 +19363,13 @@
       <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D71">
         <v>98</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>0</v>
       </c>
       <c r="F71" t="s">
@@ -19417,9 +19433,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H55" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -21648,7 +21670,7 @@
         <v>7871.4049999999997</v>
       </c>
       <c r="AA26">
-        <v>29.994999999999891</v>
+        <v>29.994999999999902</v>
       </c>
       <c r="AB26">
         <v>29.994999999999891</v>
@@ -28458,15 +28480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.21875" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -28565,7 +28585,7 @@
       <c r="D2">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1.51</v>
       </c>
       <c r="F2">
@@ -28651,7 +28671,7 @@
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3">
@@ -28737,7 +28757,7 @@
       <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>50.61</v>
       </c>
       <c r="F4">
@@ -28823,7 +28843,7 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>73.52</v>
       </c>
       <c r="F5">
@@ -28909,7 +28929,7 @@
       <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>150.88</v>
       </c>
       <c r="F6">
@@ -28995,7 +29015,7 @@
       <c r="D7">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1780.36</v>
       </c>
       <c r="F7">
@@ -29081,7 +29101,7 @@
       <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1.25</v>
       </c>
       <c r="F8">
@@ -29167,7 +29187,7 @@
       <c r="D9">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1.04</v>
       </c>
       <c r="F9">
@@ -29253,7 +29273,7 @@
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.54</v>
       </c>
       <c r="F10">
@@ -29339,7 +29359,7 @@
       <c r="D11">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>12.09</v>
       </c>
       <c r="F11">
@@ -29425,7 +29445,7 @@
       <c r="D12">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1.66</v>
       </c>
       <c r="F12">
@@ -29511,7 +29531,7 @@
       <c r="D13">
         <v>23</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>11.63</v>
       </c>
       <c r="F13">
@@ -29597,7 +29617,7 @@
       <c r="D14">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>21.54</v>
       </c>
       <c r="F14">
@@ -29683,7 +29703,7 @@
       <c r="D15">
         <v>25</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>88.77000000000001</v>
       </c>
       <c r="F15">
@@ -29769,7 +29789,7 @@
       <c r="D16">
         <v>26</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>2.0699999999999998</v>
       </c>
       <c r="F16">
@@ -29855,7 +29875,7 @@
       <c r="D17">
         <v>27</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>34.659999999999997</v>
       </c>
       <c r="F17">
@@ -29941,7 +29961,7 @@
       <c r="D18">
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>69.86</v>
       </c>
       <c r="F18">
@@ -30027,7 +30047,7 @@
       <c r="D19">
         <v>29</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0.48</v>
       </c>
       <c r="F19">
@@ -30113,7 +30133,7 @@
       <c r="D20">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20">
@@ -30199,7 +30219,7 @@
       <c r="D21">
         <v>32</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>323.70999999999998</v>
       </c>
       <c r="F21">
@@ -30285,7 +30305,7 @@
       <c r="D22">
         <v>33</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1684.75</v>
       </c>
       <c r="F22">
@@ -30371,7 +30391,7 @@
       <c r="D23">
         <v>34</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>661.17000000000007</v>
       </c>
       <c r="F23">
@@ -30457,7 +30477,7 @@
       <c r="D24">
         <v>35</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>14.45</v>
       </c>
       <c r="F24">
@@ -30543,7 +30563,7 @@
       <c r="D25">
         <v>36</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>6.74</v>
       </c>
       <c r="F25">
@@ -30629,7 +30649,7 @@
       <c r="D26">
         <v>37</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>5618.01</v>
       </c>
       <c r="F26">
@@ -30715,7 +30735,7 @@
       <c r="D27">
         <v>38</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>15.73</v>
       </c>
       <c r="F27">
@@ -30801,7 +30821,7 @@
       <c r="D28">
         <v>39</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>1.7</v>
       </c>
       <c r="F28">
@@ -30887,7 +30907,7 @@
       <c r="D29">
         <v>40</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>1.71</v>
       </c>
       <c r="F29">
@@ -30973,7 +30993,7 @@
       <c r="D30">
         <v>41</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>115.02</v>
       </c>
       <c r="F30">
@@ -31059,7 +31079,7 @@
       <c r="D31">
         <v>42</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>30.47</v>
       </c>
       <c r="F31">
@@ -31145,7 +31165,7 @@
       <c r="D32">
         <v>43</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1175.42</v>
       </c>
       <c r="F32">
@@ -31231,7 +31251,7 @@
       <c r="D33">
         <v>45</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>76.37</v>
       </c>
       <c r="F33">
@@ -31317,7 +31337,7 @@
       <c r="D34">
         <v>46</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>4.3099999999999996</v>
       </c>
       <c r="F34">
@@ -31403,7 +31423,7 @@
       <c r="D35">
         <v>47</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>8.34</v>
       </c>
       <c r="F35">
@@ -31489,7 +31509,7 @@
       <c r="D36">
         <v>48</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>3.21</v>
       </c>
       <c r="F36">
@@ -31575,7 +31595,7 @@
       <c r="D37">
         <v>49</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>19.98</v>
       </c>
       <c r="F37">
@@ -31661,7 +31681,7 @@
       <c r="D38">
         <v>50</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>19.48</v>
       </c>
       <c r="F38">
@@ -31747,7 +31767,7 @@
       <c r="D39">
         <v>51</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>3.39</v>
       </c>
       <c r="F39">
@@ -31833,7 +31853,7 @@
       <c r="D40">
         <v>53</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>128.19999999999999</v>
       </c>
       <c r="F40">
@@ -31919,7 +31939,7 @@
       <c r="D41">
         <v>54</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>2.77</v>
       </c>
       <c r="F41">
@@ -32005,7 +32025,7 @@
       <c r="D42">
         <v>55</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>8.9700000000000006</v>
       </c>
       <c r="F42">
@@ -32091,7 +32111,7 @@
       <c r="D43">
         <v>60</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>606.9</v>
       </c>
       <c r="F43">
@@ -32177,7 +32197,7 @@
       <c r="D44">
         <v>61</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>50.22</v>
       </c>
       <c r="F44">
@@ -32263,7 +32283,7 @@
       <c r="D45">
         <v>63</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>61.29</v>
       </c>
       <c r="F45">
@@ -32349,7 +32369,7 @@
       <c r="D46">
         <v>65</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>8.9700000000000006</v>
       </c>
       <c r="F46">
@@ -32435,7 +32455,7 @@
       <c r="D47">
         <v>66</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47">
@@ -32521,7 +32541,7 @@
       <c r="D48">
         <v>68</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>20.5</v>
       </c>
       <c r="F48">
@@ -32607,7 +32627,7 @@
       <c r="D49">
         <v>69</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>3</v>
       </c>
       <c r="F49">
@@ -32693,7 +32713,7 @@
       <c r="D50">
         <v>70</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>14.49</v>
       </c>
       <c r="F50">
@@ -32779,7 +32799,7 @@
       <c r="D51">
         <v>72</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>19.47</v>
       </c>
       <c r="F51">
@@ -32865,7 +32885,7 @@
       <c r="D52">
         <v>73</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>9.8800000000000008</v>
       </c>
       <c r="F52">
@@ -32951,7 +32971,7 @@
       <c r="D53">
         <v>74</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>0.2</v>
       </c>
       <c r="F53">
@@ -33037,7 +33057,7 @@
       <c r="D54">
         <v>75</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>4.08</v>
       </c>
       <c r="F54">
@@ -33123,7 +33143,7 @@
       <c r="D55">
         <v>76</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>45.32</v>
       </c>
       <c r="F55">
@@ -33209,7 +33229,7 @@
       <c r="D56">
         <v>77</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>12.72</v>
       </c>
       <c r="F56">
@@ -33295,7 +33315,7 @@
       <c r="D57">
         <v>79</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>15323.6</v>
       </c>
       <c r="F57">
@@ -33381,7 +33401,7 @@
       <c r="D58">
         <v>82</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>308.94</v>
       </c>
       <c r="F58">
@@ -33467,7 +33487,7 @@
       <c r="D59">
         <v>84</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>0</v>
       </c>
       <c r="F59">
@@ -33553,7 +33573,7 @@
       <c r="D60">
         <v>85</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>10218.879999999999</v>
       </c>
       <c r="F60">
@@ -33639,7 +33659,7 @@
       <c r="D61">
         <v>86</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>8684.6999999999989</v>
       </c>
       <c r="F61">
@@ -33725,7 +33745,7 @@
       <c r="D62">
         <v>88</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>1181.58</v>
       </c>
       <c r="F62">
@@ -33811,7 +33831,7 @@
       <c r="D63">
         <v>89</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>706.11</v>
       </c>
       <c r="F63">
@@ -33897,7 +33917,7 @@
       <c r="D64">
         <v>90</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>521.53</v>
       </c>
       <c r="F64">
@@ -33983,7 +34003,7 @@
       <c r="D65">
         <v>91</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>9050.67</v>
       </c>
       <c r="F65">
@@ -34069,7 +34089,7 @@
       <c r="D66">
         <v>92</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>73.260000000000005</v>
       </c>
       <c r="F66">
@@ -34155,7 +34175,7 @@
       <c r="D67">
         <v>93</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>0</v>
       </c>
       <c r="F67">
@@ -34241,7 +34261,7 @@
       <c r="D68">
         <v>94</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>135.41999999999999</v>
       </c>
       <c r="F68">
@@ -34327,7 +34347,7 @@
       <c r="D69">
         <v>95</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>0</v>
       </c>
       <c r="F69">
@@ -34413,7 +34433,7 @@
       <c r="D70">
         <v>98</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>0</v>
       </c>
       <c r="F70">
@@ -34499,7 +34519,7 @@
       <c r="D71">
         <v>99</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>0</v>
       </c>
       <c r="F71">
